--- a/05_Win32Api/024 IATHOOK 修改内存保护属性.xlsx
+++ b/05_Win32Api/024 IATHOOK 修改内存保护属性.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\05_Win32Api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2540EA3-3C76-46F2-96DB-9871C66B9378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E0E809F-D790-4F2E-A642-6C49EC882F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{46ACB942-4CC9-4976-B49E-F3A549FEF829}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>IAT HOOK原理</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,6 +48,10 @@
   </si>
   <si>
     <t xml:space="preserve">      需要修改内存保护属性。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      LoadLibrary 的函数，不会出现在 IAT中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -446,7 +450,7 @@
   <dimension ref="B3:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -534,7 +538,9 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
+      <c r="B10" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
